--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -14,39 +14,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13 14 15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1 23</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6789</t>
-  </si>
-  <si>
-    <t>10 11</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14 15</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+  <si>
+    <t>王念强</t>
+  </si>
+  <si>
+    <t>副总裁</t>
+  </si>
+  <si>
+    <t>离任</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>2002 年 06 月 10 日</t>
+  </si>
+  <si>
+    <t>2015 年 04 月 27 日</t>
+  </si>
+  <si>
+    <t>19,049,740</t>
+  </si>
+  <si>
+    <t>业 究 ， 兼 、 、 理 零 零</t>
+  </si>
+  <si>
+    <t>廉玉波</t>
+  </si>
+  <si>
+    <t>现任</t>
+  </si>
+  <si>
+    <t>2007 年 02 月 06 日</t>
+  </si>
+  <si>
+    <t>2017 年 09 月 10 日</t>
+  </si>
+  <si>
+    <t>37,215</t>
+  </si>
+  <si>
+    <t>何龙</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>2,776,660</t>
+  </si>
+  <si>
+    <t>262,300</t>
+  </si>
+  <si>
+    <t>2,514,360</t>
+  </si>
+  <si>
+    <t>刘焕明</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2012 年 01 月 18 日</t>
+  </si>
+  <si>
+    <t>3,912,340</t>
+  </si>
+  <si>
+    <t>36,640</t>
+  </si>
+  <si>
+    <t>3,948,980</t>
+  </si>
+  <si>
+    <t>张金涛</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>1,616,660</t>
+  </si>
+  <si>
+    <t>40,800</t>
+  </si>
+  <si>
+    <t>1,657,460</t>
+  </si>
+  <si>
+    <t>罗红斌</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>37,100</t>
+  </si>
+  <si>
+    <t>李黔</t>
+  </si>
+  <si>
+    <t>董事会秘 书、公司 秘书</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2014 年 11 月 18 日</t>
+  </si>
+  <si>
+    <t>2017 年 11 月 18 日</t>
+  </si>
+  <si>
+    <t>27,500</t>
+  </si>
+  <si>
+    <t>周亚琳</t>
+  </si>
+  <si>
+    <t>总会计师</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>293,200</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>972,509,040</t>
+  </si>
+  <si>
+    <t>546,055</t>
+  </si>
+  <si>
+    <t>58,281,060</t>
+  </si>
+  <si>
+    <t>914,774,035</t>
+  </si>
+  <si>
+    <t>二、公司董事、监事、高级管理人员变动情况</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>担任的职务</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>原因</t>
+  </si>
+  <si>
+    <t>2015 年 04 月 28 日</t>
+  </si>
+  <si>
+    <t>工作变动</t>
   </si>
 </sst>
 </file>
@@ -395,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -403,25 +544,66 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:19">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s"/>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="B2" t="s"/>
       <c r="C2" t="s"/>
       <c r="D2" t="s"/>
@@ -429,46 +611,489 @@
       <c r="F2" t="s"/>
       <c r="G2" t="s"/>
       <c r="H2" t="s"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s"/>
+      <c r="I2" t="s"/>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s"/>
       <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
+      <c r="M3" t="s"/>
+      <c r="N3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s"/>
       <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" t="s"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" t="s"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" t="s"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" t="s"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" t="s"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
+      <c r="B11" t="s"/>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" t="s"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s"/>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s"/>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s"/>
+      <c r="K14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s"/>
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
